--- a/datasets/data_absensi.xlsx
+++ b/datasets/data_absensi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,10 +501,8 @@
           <t>Said Ali Zulfikar</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>55419821</t>
-        </is>
+      <c r="B3" t="n">
+        <v>55419821</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,6 +522,68 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>MASUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fuad Fahrezy Putra</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>52419524</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4IA10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18:50:23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MASUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fuad Fahrezy Putra</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>52419524</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4IA10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18:51:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PULANG</t>
         </is>
       </c>
     </row>

--- a/datasets/data_absensi.xlsx
+++ b/datasets/data_absensi.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="360" yWindow="570" windowWidth="19815" windowHeight="7875"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>npm</t>
+  </si>
+  <si>
+    <t>kelas</t>
+  </si>
+  <si>
+    <t>waktu</t>
+  </si>
+  <si>
+    <t>tanggal</t>
+  </si>
+  <si>
+    <t>keterangan</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +69,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,171 +385,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>nama</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>npm</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>kelas</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>waktu</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>tanggal</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>keterangan</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Said Ali Zulfikar</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>55419821</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4IA10</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18:23:47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>PULANG</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Said Ali Zulfikar</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>55419821</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4IA10</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18:24:17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MASUK</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fuad Fahrezy Putra</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>52419524</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4IA10</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18:50:23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MASUK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Fuad Fahrezy Putra</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>52419524</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4IA10</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18:51:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>PULANG</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/data_absensi.xlsx
+++ b/datasets/data_absensi.xlsx
@@ -1,60 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="570" windowWidth="19815" windowHeight="7875"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>npm</t>
-  </si>
-  <si>
-    <t>kelas</t>
-  </si>
-  <si>
-    <t>waktu</t>
-  </si>
-  <si>
-    <t>tanggal</t>
-  </si>
-  <si>
-    <t>keterangan</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,33 +420,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>nama</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>npm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>kelas</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>waktu</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tanggal</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>keterangan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Said Ali Zulfikar</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55419821</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4IA10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13:45:24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MASUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Said Ali Zulfikar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>55419821</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4IA10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13:45:59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PULANG</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datasets/data_absensi.xlsx
+++ b/datasets/data_absensi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,10 +501,8 @@
           <t>Said Ali Zulfikar</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>55419821</t>
-        </is>
+      <c r="B3" t="n">
+        <v>55419821</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -522,6 +520,158 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>PULANG</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lovelyo Yeremia Mokalu </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>53419433</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4IA10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14:02:05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MASUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lovelyo Yeremia Mokalu </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>53419433</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4IA10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14:02:40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PULANG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Said Ali Zulfikar</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>55419821</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4IA10</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17:24:35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MASUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lovelyo Yeremia Mokalu </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>53419433</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4IA10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17:33:33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MASUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lovelyo Yeremia Mokalu </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>53419433</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4IA10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17:34:23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>PULANG</t>
         </is>

--- a/datasets/data_absensi.xlsx
+++ b/datasets/data_absensi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,10 +651,8 @@
           <t xml:space="preserve">Lovelyo Yeremia Mokalu </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>53419433</t>
-        </is>
+      <c r="B8" t="n">
+        <v>53419433</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,6 +672,98 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>PULANG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lovelyo Yeremia Mokalu </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53419433</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4IA10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20:13:50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MASUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raditya Adjie Ramadhan </t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>55419146</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4IA10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20:46:11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MASUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muhammad Riyan </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>54419417</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4IA10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20:48:15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MASUK</t>
         </is>
       </c>
     </row>
